--- a/oci_tools/automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="1069">
   <si>
     <t>Region</t>
   </si>
@@ -7140,6 +7140,18 @@
   </si>
   <si>
     <t>pvt-infra</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read data-safe-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read autonomous-database-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read vaults in tenancy</t>
+  </si>
+  <si>
+    <t>CIDR Blocks</t>
   </si>
 </sst>
 </file>
@@ -7955,17 +7967,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -11154,6 +11166,79 @@
       <sheetName val="NSGs"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
+      <sheetName val="BlockVolumes"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DBSystems-VM-BM"/>
+      <sheetName val="EXA-Infra"/>
+      <sheetName val="EXA-VMClusters"/>
+      <sheetName val="Database_Dropdown"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="LB Rule Set Dropdown"/>
+      <sheetName val="drop_down_rule_comp"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="DRGs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="DRGRouteRulesinOCI"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
       <sheetName val="BlockVols"/>
       <sheetName val="FSS"/>
       <sheetName val="LB-Hostname-Certs"/>
@@ -11202,75 +11287,6 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="Rule Set Dropdown"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="Database_Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11620,12 +11636,12 @@
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
       <c r="F1" s="114"/>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="117" t="s">
         <v>486</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="117"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="43" t="s">
@@ -16986,7 +17002,7 @@
       <c r="G1" s="113"/>
       <c r="H1" s="113"/>
       <c r="I1" s="113"/>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="117" t="s">
         <v>480</v>
       </c>
       <c r="K1" s="126"/>
@@ -42801,10 +42817,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -43869,21 +43885,13 @@
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
     </row>
-    <row r="84" spans="1:8" ht="87" customHeight="1">
-      <c r="A84" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="110" t="s">
-        <v>678</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>679</v>
-      </c>
+    <row r="84" spans="1:8" ht="29" customHeight="1">
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
       <c r="E84" s="37" t="s">
-        <v>680</v>
+        <v>1065</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -43895,7 +43903,7 @@
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
-        <v>681</v>
+        <v>1066</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -43907,19 +43915,27 @@
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
       <c r="E86" s="37" t="s">
-        <v>682</v>
+        <v>1067</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
     </row>
-    <row r="87" spans="1:8" ht="29" customHeight="1">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
+    <row r="87" spans="1:8" ht="87" customHeight="1">
+      <c r="A87" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="110" t="s">
+        <v>678</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>679</v>
+      </c>
       <c r="E87" s="37" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -43931,19 +43947,19 @@
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
       <c r="H88" s="37"/>
     </row>
-    <row r="89" spans="1:8" ht="29">
+    <row r="89" spans="1:8" ht="29" customHeight="1">
       <c r="A89" s="37"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
       <c r="E89" s="37" t="s">
-        <v>811</v>
+        <v>682</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -43955,7 +43971,7 @@
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -43967,19 +43983,19 @@
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
       <c r="E91" s="37" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
       <c r="H91" s="37"/>
     </row>
-    <row r="92" spans="1:8" ht="29" customHeight="1">
+    <row r="92" spans="1:8" ht="29">
       <c r="A92" s="37"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
       <c r="E92" s="37" t="s">
-        <v>687</v>
+        <v>811</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -43991,7 +44007,7 @@
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -44003,7 +44019,7 @@
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
       <c r="E94" s="37" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -44015,7 +44031,7 @@
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
       <c r="E95" s="37" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -44027,7 +44043,7 @@
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
       <c r="E96" s="37" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -44039,7 +44055,7 @@
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
       <c r="E97" s="37" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -44051,7 +44067,7 @@
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
       <c r="E98" s="37" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -44063,43 +44079,43 @@
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
       <c r="E99" s="37" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
     </row>
-    <row r="100" spans="1:8" ht="29">
+    <row r="100" spans="1:8" ht="29" customHeight="1">
       <c r="A100" s="37"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
       <c r="E100" s="37" t="s">
-        <v>812</v>
+        <v>692</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
     </row>
-    <row r="101" spans="1:8" ht="29">
+    <row r="101" spans="1:8" ht="29" customHeight="1">
       <c r="A101" s="37"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
       <c r="E101" s="37" t="s">
-        <v>855</v>
+        <v>693</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
       <c r="H101" s="37"/>
     </row>
-    <row r="102" spans="1:8" ht="29">
+    <row r="102" spans="1:8" ht="29" customHeight="1">
       <c r="A102" s="37"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
-      <c r="E102" s="1" t="s">
-        <v>1028</v>
+      <c r="E102" s="37" t="s">
+        <v>694</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -44110,8 +44126,8 @@
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
-      <c r="E103" s="1" t="s">
-        <v>1029</v>
+      <c r="E103" s="37" t="s">
+        <v>812</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -44122,8 +44138,8 @@
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
-      <c r="E104" s="1" t="s">
-        <v>1024</v>
+      <c r="E104" s="37" t="s">
+        <v>855</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -44135,7 +44151,7 @@
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
       <c r="E105" s="1" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -44147,7 +44163,7 @@
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
       <c r="E106" s="1" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -44159,7 +44175,7 @@
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
       <c r="E107" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -44171,7 +44187,7 @@
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
       <c r="E108" s="1" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -44183,7 +44199,7 @@
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
       <c r="E109" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -44195,7 +44211,7 @@
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
       <c r="E110" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -44206,8 +44222,8 @@
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
-      <c r="E111" s="37" t="s">
-        <v>856</v>
+      <c r="E111" s="1" t="s">
+        <v>1026</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -44218,8 +44234,8 @@
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
-      <c r="E112" s="37" t="s">
-        <v>980</v>
+      <c r="E112" s="1" t="s">
+        <v>1027</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -44230,28 +44246,20 @@
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
-      <c r="E113" s="37" t="s">
-        <v>981</v>
+      <c r="E113" s="1" t="s">
+        <v>1030</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
     </row>
-    <row r="114" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A114" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="110" t="s">
-        <v>695</v>
-      </c>
-      <c r="C114" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="D114" s="37" t="s">
-        <v>696</v>
-      </c>
-      <c r="E114" s="110" t="s">
-        <v>857</v>
+    <row r="114" spans="1:8" ht="29">
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37" t="s">
+        <v>856</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -44262,44 +44270,52 @@
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
-      <c r="E115" s="110" t="s">
-        <v>699</v>
+      <c r="E115" s="37" t="s">
+        <v>980</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
     </row>
-    <row r="116" spans="1:8" ht="29" customHeight="1">
+    <row r="116" spans="1:8" ht="29">
       <c r="A116" s="37"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
-      <c r="E116" s="110" t="s">
-        <v>702</v>
+      <c r="E116" s="37" t="s">
+        <v>981</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
       <c r="H116" s="37"/>
     </row>
-    <row r="117" spans="1:8" ht="29">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
+    <row r="117" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A117" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="110" t="s">
+        <v>695</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>696</v>
+      </c>
       <c r="E117" s="110" t="s">
-        <v>703</v>
+        <v>857</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
       <c r="H117" s="37"/>
     </row>
-    <row r="118" spans="1:8" ht="29" customHeight="1">
+    <row r="118" spans="1:8" ht="29">
       <c r="A118" s="37"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
       <c r="E118" s="110" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -44311,19 +44327,19 @@
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
       <c r="E119" s="110" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
     </row>
-    <row r="120" spans="1:8" ht="29" customHeight="1">
+    <row r="120" spans="1:8" ht="29">
       <c r="A120" s="37"/>
       <c r="B120" s="37"/>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
       <c r="E120" s="110" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -44335,7 +44351,7 @@
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
       <c r="E121" s="110" t="s">
-        <v>858</v>
+        <v>704</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -44347,7 +44363,7 @@
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
       <c r="E122" s="110" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -44359,19 +44375,19 @@
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
       <c r="E123" s="110" t="s">
-        <v>859</v>
+        <v>706</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
     </row>
-    <row r="124" spans="1:8" ht="29">
+    <row r="124" spans="1:8" ht="29" customHeight="1">
       <c r="A124" s="37"/>
       <c r="B124" s="37"/>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
       <c r="E124" s="110" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -44383,19 +44399,19 @@
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
       <c r="E125" s="110" t="s">
-        <v>861</v>
+        <v>697</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
     </row>
-    <row r="126" spans="1:8" ht="29">
+    <row r="126" spans="1:8" ht="29" customHeight="1">
       <c r="A126" s="37"/>
       <c r="B126" s="37"/>
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
       <c r="E126" s="110" t="s">
-        <v>698</v>
+        <v>859</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -44406,112 +44422,112 @@
       <c r="B127" s="37"/>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
-      <c r="E127" s="37" t="s">
-        <v>700</v>
+      <c r="E127" s="110" t="s">
+        <v>860</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
     </row>
-    <row r="128" spans="1:8" ht="29">
+    <row r="128" spans="1:8" ht="29" customHeight="1">
       <c r="A128" s="37"/>
       <c r="B128" s="37"/>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
-      <c r="E128" s="37" t="s">
-        <v>701</v>
+      <c r="E128" s="110" t="s">
+        <v>861</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" ht="29">
       <c r="A129" s="37"/>
       <c r="B129" s="37"/>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
-      <c r="E129" s="37" t="s">
-        <v>862</v>
+      <c r="E129" s="110" t="s">
+        <v>698</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" ht="29">
       <c r="A130" s="37"/>
       <c r="B130" s="37"/>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
       <c r="E130" s="37" t="s">
-        <v>863</v>
+        <v>700</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="29">
       <c r="A131" s="37"/>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
       <c r="E131" s="37" t="s">
-        <v>864</v>
+        <v>701</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
     </row>
-    <row r="132" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A132" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="110" t="s">
-        <v>707</v>
-      </c>
-      <c r="C132" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>708</v>
-      </c>
+    <row r="132" spans="1:8">
+      <c r="A132" s="37"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
       <c r="E132" s="37" t="s">
-        <v>709</v>
+        <v>862</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
     </row>
-    <row r="133" spans="1:8" ht="29" customHeight="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="37"/>
       <c r="B133" s="37"/>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
       <c r="E133" s="37" t="s">
-        <v>710</v>
+        <v>863</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
     </row>
-    <row r="134" spans="1:8" ht="29" customHeight="1">
+    <row r="134" spans="1:8">
       <c r="A134" s="37"/>
       <c r="B134" s="37"/>
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
       <c r="E134" s="37" t="s">
-        <v>711</v>
+        <v>864</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
       <c r="H134" s="37"/>
     </row>
-    <row r="135" spans="1:8" ht="29" customHeight="1">
-      <c r="A135" s="37"/>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
+    <row r="135" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A135" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="110" t="s">
+        <v>707</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="D135" s="37" t="s">
+        <v>708</v>
+      </c>
       <c r="E135" s="37" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -44523,7 +44539,7 @@
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
       <c r="E136" s="37" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -44535,7 +44551,7 @@
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
       <c r="E137" s="37" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -44547,7 +44563,7 @@
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
       <c r="E138" s="37" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -44559,7 +44575,7 @@
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
       <c r="E139" s="37" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -44571,43 +44587,43 @@
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
       <c r="E140" s="37" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
     </row>
-    <row r="141" spans="1:8" ht="29">
+    <row r="141" spans="1:8" ht="29" customHeight="1">
       <c r="A141" s="37"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
       <c r="E141" s="37" t="s">
-        <v>813</v>
+        <v>715</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
       <c r="H141" s="37"/>
     </row>
-    <row r="142" spans="1:8" ht="29">
+    <row r="142" spans="1:8" ht="29" customHeight="1">
       <c r="A142" s="37"/>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
       <c r="E142" s="37" t="s">
-        <v>865</v>
+        <v>716</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
       <c r="H142" s="37"/>
     </row>
-    <row r="143" spans="1:8" ht="29">
+    <row r="143" spans="1:8" ht="29" customHeight="1">
       <c r="A143" s="37"/>
       <c r="B143" s="37"/>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
-      <c r="E143" s="1" t="s">
-        <v>1032</v>
+      <c r="E143" s="37" t="s">
+        <v>717</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -44618,8 +44634,8 @@
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
-      <c r="E144" s="1" t="s">
-        <v>1033</v>
+      <c r="E144" s="37" t="s">
+        <v>813</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -44630,8 +44646,8 @@
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
-      <c r="E145" s="1" t="s">
-        <v>1034</v>
+      <c r="E145" s="37" t="s">
+        <v>865</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -44643,7 +44659,7 @@
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
       <c r="E146" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -44655,7 +44671,7 @@
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
       <c r="E147" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -44667,7 +44683,7 @@
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
       <c r="E148" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -44679,19 +44695,19 @@
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
       <c r="E149" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
       <c r="H149" s="37"/>
     </row>
-    <row r="150" spans="1:8" ht="17.5" customHeight="1">
+    <row r="150" spans="1:8" ht="29">
       <c r="A150" s="37"/>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
-      <c r="E150" s="37" t="s">
-        <v>866</v>
+      <c r="E150" s="1" t="s">
+        <v>1035</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -44702,8 +44718,8 @@
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
-      <c r="E151" s="37" t="s">
-        <v>982</v>
+      <c r="E151" s="1" t="s">
+        <v>1037</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -44714,48 +44730,32 @@
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
-      <c r="E152" s="37" t="s">
-        <v>1031</v>
+      <c r="E152" s="1" t="s">
+        <v>1038</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
       <c r="H152" s="37"/>
     </row>
-    <row r="153" spans="1:8" ht="72.5">
-      <c r="A153" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="37" t="s">
-        <v>814</v>
-      </c>
-      <c r="C153" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="D153" s="37" t="s">
-        <v>815</v>
-      </c>
+    <row r="153" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A153" s="37"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
       <c r="E153" s="37" t="s">
-        <v>816</v>
+        <v>866</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
       <c r="H153" s="37"/>
     </row>
-    <row r="154" spans="1:8" ht="43.5">
-      <c r="A154" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="102" t="s">
-        <v>983</v>
-      </c>
-      <c r="C154" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="D154" s="37" t="s">
-        <v>984</v>
-      </c>
+    <row r="154" spans="1:8" ht="29">
+      <c r="A154" s="37"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
       <c r="E154" s="37" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -44767,63 +44767,79 @@
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
       <c r="E155" s="37" t="s">
-        <v>986</v>
+        <v>1031</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
       <c r="H155" s="37"/>
     </row>
-    <row r="156" spans="1:8" ht="101.5" customHeight="1">
+    <row r="156" spans="1:8" ht="72.5">
       <c r="A156" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="110" t="s">
-        <v>718</v>
+      <c r="B156" s="37" t="s">
+        <v>814</v>
       </c>
       <c r="C156" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D156" s="37" t="s">
-        <v>719</v>
+        <v>815</v>
       </c>
       <c r="E156" s="37" t="s">
-        <v>736</v>
+        <v>816</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
       <c r="H156" s="37"/>
     </row>
-    <row r="157" spans="1:8" ht="29" customHeight="1">
-      <c r="A157" s="37"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="37"/>
-      <c r="D157" s="37"/>
+    <row r="157" spans="1:8" ht="43.5">
+      <c r="A157" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="102" t="s">
+        <v>983</v>
+      </c>
+      <c r="C157" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="D157" s="37" t="s">
+        <v>984</v>
+      </c>
       <c r="E157" s="37" t="s">
-        <v>737</v>
+        <v>985</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
       <c r="H157" s="37"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" ht="29">
       <c r="A158" s="37"/>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
       <c r="E158" s="37" t="s">
-        <v>867</v>
+        <v>986</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
       <c r="H158" s="37"/>
     </row>
-    <row r="159" spans="1:8" ht="29" customHeight="1">
-      <c r="A159" s="37"/>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
+    <row r="159" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A159" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="110" t="s">
+        <v>718</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="D159" s="37" t="s">
+        <v>719</v>
+      </c>
       <c r="E159" s="37" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -44835,19 +44851,19 @@
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
       <c r="E160" s="37" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
       <c r="H160" s="37"/>
     </row>
-    <row r="161" spans="1:8" ht="29" customHeight="1">
+    <row r="161" spans="1:8">
       <c r="A161" s="37"/>
       <c r="B161" s="37"/>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
       <c r="E161" s="37" t="s">
-        <v>743</v>
+        <v>867</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -44859,7 +44875,7 @@
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
       <c r="E162" s="37" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -44871,7 +44887,7 @@
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
       <c r="E163" s="37" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -44883,7 +44899,7 @@
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
       <c r="E164" s="37" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -44895,7 +44911,7 @@
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
       <c r="E165" s="37" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -44907,7 +44923,7 @@
       <c r="C166" s="37"/>
       <c r="D166" s="37"/>
       <c r="E166" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -44919,7 +44935,7 @@
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
       <c r="E167" s="37" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -44931,7 +44947,7 @@
       <c r="C168" s="37"/>
       <c r="D168" s="37"/>
       <c r="E168" s="37" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -44943,7 +44959,7 @@
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
       <c r="E169" s="37" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F169" s="37"/>
       <c r="G169" s="37"/>
@@ -44955,7 +44971,7 @@
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
       <c r="E170" s="37" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="37"/>
@@ -44967,7 +44983,7 @@
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
       <c r="E171" s="37" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -44979,7 +44995,7 @@
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
       <c r="E172" s="37" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -44991,7 +45007,7 @@
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
       <c r="E173" s="37" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -45003,7 +45019,7 @@
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
       <c r="E174" s="37" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -45015,7 +45031,7 @@
       <c r="C175" s="37"/>
       <c r="D175" s="37"/>
       <c r="E175" s="37" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -45027,7 +45043,7 @@
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
       <c r="E176" s="37" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -45039,31 +45055,31 @@
       <c r="C177" s="37"/>
       <c r="D177" s="37"/>
       <c r="E177" s="37" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
       <c r="H177" s="37"/>
     </row>
-    <row r="178" spans="1:8" ht="29">
+    <row r="178" spans="1:8" ht="29" customHeight="1">
       <c r="A178" s="37"/>
       <c r="B178" s="37"/>
       <c r="C178" s="37"/>
       <c r="D178" s="37"/>
       <c r="E178" s="37" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
       <c r="H178" s="37"/>
     </row>
-    <row r="179" spans="1:8" ht="29">
+    <row r="179" spans="1:8" ht="29" customHeight="1">
       <c r="A179" s="37"/>
       <c r="B179" s="37"/>
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
       <c r="E179" s="37" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -45075,67 +45091,67 @@
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
       <c r="E180" s="37" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
       <c r="H180" s="37"/>
     </row>
-    <row r="181" spans="1:8" ht="29" customHeight="1">
+    <row r="181" spans="1:8" ht="29">
       <c r="A181" s="37"/>
       <c r="B181" s="37"/>
       <c r="C181" s="37"/>
       <c r="D181" s="37"/>
       <c r="E181" s="37" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="37"/>
       <c r="H181" s="37"/>
     </row>
-    <row r="182" spans="1:8" ht="29" customHeight="1">
+    <row r="182" spans="1:8" ht="29">
       <c r="A182" s="37"/>
       <c r="B182" s="37"/>
       <c r="C182" s="37"/>
       <c r="D182" s="37"/>
       <c r="E182" s="37" t="s">
-        <v>868</v>
+        <v>745</v>
       </c>
       <c r="F182" s="37"/>
       <c r="G182" s="37"/>
       <c r="H182" s="37"/>
     </row>
-    <row r="183" spans="1:8" ht="29">
+    <row r="183" spans="1:8" ht="29" customHeight="1">
       <c r="A183" s="37"/>
       <c r="B183" s="37"/>
       <c r="C183" s="37"/>
       <c r="D183" s="37"/>
       <c r="E183" s="37" t="s">
-        <v>1014</v>
+        <v>746</v>
       </c>
       <c r="F183" s="37"/>
       <c r="G183" s="37"/>
       <c r="H183" s="37"/>
     </row>
-    <row r="184" spans="1:8" ht="29">
+    <row r="184" spans="1:8" ht="29" customHeight="1">
       <c r="A184" s="37"/>
       <c r="B184" s="37"/>
       <c r="C184" s="37"/>
       <c r="D184" s="37"/>
       <c r="E184" s="37" t="s">
-        <v>1015</v>
+        <v>747</v>
       </c>
       <c r="F184" s="37"/>
       <c r="G184" s="37"/>
       <c r="H184" s="37"/>
     </row>
-    <row r="185" spans="1:8" ht="29">
+    <row r="185" spans="1:8" ht="29" customHeight="1">
       <c r="A185" s="37"/>
       <c r="B185" s="37"/>
       <c r="C185" s="37"/>
       <c r="D185" s="37"/>
       <c r="E185" s="37" t="s">
-        <v>1016</v>
+        <v>868</v>
       </c>
       <c r="F185" s="37"/>
       <c r="G185" s="37"/>
@@ -45147,7 +45163,7 @@
       <c r="C186" s="37"/>
       <c r="D186" s="37"/>
       <c r="E186" s="37" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F186" s="37"/>
       <c r="G186" s="37"/>
@@ -45159,7 +45175,7 @@
       <c r="C187" s="37"/>
       <c r="D187" s="37"/>
       <c r="E187" s="37" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F187" s="37"/>
       <c r="G187" s="37"/>
@@ -45171,7 +45187,7 @@
       <c r="C188" s="37"/>
       <c r="D188" s="37"/>
       <c r="E188" s="37" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="37"/>
@@ -45183,43 +45199,43 @@
       <c r="C189" s="37"/>
       <c r="D189" s="37"/>
       <c r="E189" s="37" t="s">
-        <v>869</v>
+        <v>1017</v>
       </c>
       <c r="F189" s="37"/>
       <c r="G189" s="37"/>
       <c r="H189" s="37"/>
     </row>
-    <row r="190" spans="1:8" ht="29" customHeight="1">
+    <row r="190" spans="1:8" ht="29">
       <c r="A190" s="37"/>
       <c r="B190" s="37"/>
       <c r="C190" s="37"/>
       <c r="D190" s="37"/>
       <c r="E190" s="37" t="s">
-        <v>738</v>
+        <v>1018</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
       <c r="H190" s="37"/>
     </row>
-    <row r="191" spans="1:8" ht="29" customHeight="1">
+    <row r="191" spans="1:8" ht="29">
       <c r="A191" s="37"/>
       <c r="B191" s="37"/>
       <c r="C191" s="37"/>
       <c r="D191" s="37"/>
       <c r="E191" s="37" t="s">
-        <v>740</v>
+        <v>1019</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
       <c r="H191" s="37"/>
     </row>
-    <row r="192" spans="1:8" ht="29" customHeight="1">
+    <row r="192" spans="1:8" ht="29">
       <c r="A192" s="37"/>
       <c r="B192" s="37"/>
       <c r="C192" s="37"/>
       <c r="D192" s="37"/>
       <c r="E192" s="37" t="s">
-        <v>741</v>
+        <v>869</v>
       </c>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
@@ -45231,26 +45247,62 @@
       <c r="C193" s="37"/>
       <c r="D193" s="37"/>
       <c r="E193" s="37" t="s">
-        <v>870</v>
+        <v>738</v>
       </c>
       <c r="F193" s="37"/>
       <c r="G193" s="37"/>
       <c r="H193" s="37"/>
     </row>
-    <row r="194" spans="1:8" ht="29">
-      <c r="A194" s="75"/>
-      <c r="B194" s="75"/>
-      <c r="C194" s="75"/>
-      <c r="D194" s="75"/>
-      <c r="E194" s="75" t="s">
+    <row r="194" spans="1:8" ht="29" customHeight="1">
+      <c r="A194" s="37"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37" t="s">
+        <v>740</v>
+      </c>
+      <c r="F194" s="37"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="37"/>
+    </row>
+    <row r="195" spans="1:8" ht="29" customHeight="1">
+      <c r="A195" s="37"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="37" t="s">
+        <v>741</v>
+      </c>
+      <c r="F195" s="37"/>
+      <c r="G195" s="37"/>
+      <c r="H195" s="37"/>
+    </row>
+    <row r="196" spans="1:8" ht="29" customHeight="1">
+      <c r="A196" s="37"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="37"/>
+      <c r="E196" s="37" t="s">
+        <v>870</v>
+      </c>
+      <c r="F196" s="37"/>
+      <c r="G196" s="37"/>
+      <c r="H196" s="37"/>
+    </row>
+    <row r="197" spans="1:8" ht="29">
+      <c r="A197" s="75"/>
+      <c r="B197" s="75"/>
+      <c r="C197" s="75"/>
+      <c r="D197" s="75"/>
+      <c r="E197" s="75" t="s">
         <v>1020</v>
       </c>
-      <c r="F194" s="75"/>
-      <c r="G194" s="75"/>
-      <c r="H194" s="75"/>
-    </row>
-    <row r="195" spans="1:8" s="39" customFormat="1" ht="29">
-      <c r="E195" s="37" t="s">
+      <c r="F197" s="75"/>
+      <c r="G197" s="75"/>
+      <c r="H197" s="75"/>
+    </row>
+    <row r="198" spans="1:8" s="39" customFormat="1" ht="29">
+      <c r="E198" s="37" t="s">
         <v>1021</v>
       </c>
     </row>
@@ -45259,86 +45311,92 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E3:E35 E189:E530 E44:E101 E111:E142 E150:E182"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B3:B530"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="H3:H530"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E3:E35 E192:E533 E153:E185 E114:E145 E44:E83 E87:E104"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B3:B533"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="H3:H533"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="17">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C656,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C189:C530</xm:sqref>
+          <xm:sqref>C192:C533</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C186:C188</xm:sqref>
+          <xm:sqref>C189:C191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C185</xm:sqref>
+          <xm:sqref>C188</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C183</xm:sqref>
+          <xm:sqref>C186</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C591,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C184 C111:C142</xm:sqref>
+          <xm:sqref>C187 C114:C145</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A530</xm:sqref>
+          <xm:sqref>A3:A83 A87:A533</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C623,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C150:C182</xm:sqref>
+          <xm:sqref>C153:C185</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C106:C107 C41:C43 C145:C146</xm:sqref>
+          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109 C148</xm:sqref>
+          <xm:sqref>C112 C151</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C110 C108 C149 C147</xm:sqref>
+          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C107 C146 C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C104 C143</xm:sqref>
+          <xm:sqref>C108 C147</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C532,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C105 C38:C39 C144</xm:sqref>
+          <xm:sqref>C38:C39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -45354,9 +45412,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C573,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C44:C103</xm:sqref>
+          <xm:sqref>C87:C106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -45370,6 +45428,18 @@
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
+          <x14:formula1>
+            <xm:f>'D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A84:A86</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C84:C86</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -45381,7 +45451,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -45429,7 +45499,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>1068</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -46045,7 +46115,7 @@
       <c r="A1" s="111" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="115"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
@@ -46351,18 +46421,18 @@
       <c r="F1" s="113"/>
       <c r="G1" s="113"/>
       <c r="H1" s="114"/>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="116" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" s="46" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="31" t="s">

--- a/oci_tools/automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -6710,6 +6710,379 @@
     <t/>
   </si>
   <si>
+    <t>DB System Display Name</t>
+  </si>
+  <si>
+    <t>Node Count</t>
+  </si>
+  <si>
+    <t>CPU Core Count</t>
+  </si>
+  <si>
+    <t>Database Edition</t>
+  </si>
+  <si>
+    <t>Data Storage Size in GB</t>
+  </si>
+  <si>
+    <t>Data Storage Percentage</t>
+  </si>
+  <si>
+    <t>Disk Redundancy</t>
+  </si>
+  <si>
+    <t>License Model</t>
+  </si>
+  <si>
+    <t>DB Workload</t>
+  </si>
+  <si>
+    <t>Enable Automatic Backups</t>
+  </si>
+  <si>
+    <t>Back up Retention Period</t>
+  </si>
+  <si>
+    <t>VM.Standard1.1</t>
+  </si>
+  <si>
+    <t>VM.Standard1.2</t>
+  </si>
+  <si>
+    <t>VM.Standard1.4</t>
+  </si>
+  <si>
+    <t>VM.Standard1.8</t>
+  </si>
+  <si>
+    <t>VM.Standard1.16</t>
+  </si>
+  <si>
+    <t>Shapes</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>DB workload</t>
+  </si>
+  <si>
+    <t>Exadata Infra Display Name</t>
+  </si>
+  <si>
+    <t>Database Servers</t>
+  </si>
+  <si>
+    <t>Storage Servers</t>
+  </si>
+  <si>
+    <t>Exadata.X8M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                             Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+  </si>
+  <si>
+    <t>VM Cluster Display Name</t>
+  </si>
+  <si>
+    <t>Client Subnet Name</t>
+  </si>
+  <si>
+    <t>Oracle Grid Infrastructure Version</t>
+  </si>
+  <si>
+    <t>Allocate storage for Exadata sparse snapshots</t>
+  </si>
+  <si>
+    <t>Allocate storage for local backups</t>
+  </si>
+  <si>
+    <t>Allow Group AppDevAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group AppDevAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group DatabaseAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group DatabaseAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group NetworkAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>CostAdmins-Policy</t>
+  </si>
+  <si>
+    <t>Policy allowing CostAdmins group to manage costing.</t>
+  </si>
+  <si>
+    <t>Allow group CostAdmins to manage usage-report in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group CostAdmins to manage usage-budgets  in tenancy</t>
+  </si>
+  <si>
+    <t>CostAdmins</t>
+  </si>
+  <si>
+    <t>Group responsible for Cost Management</t>
+  </si>
+  <si>
+    <t>The namespace for the automatic tags.</t>
+  </si>
+  <si>
+    <t>prod-vcn_prod-db</t>
+  </si>
+  <si>
+    <t>MyVM_DB</t>
+  </si>
+  <si>
+    <t>vmdb</t>
+  </si>
+  <si>
+    <t>MyBM_DB</t>
+  </si>
+  <si>
+    <t>bmdb</t>
+  </si>
+  <si>
+    <t>ssh-rsa AAAAB3NzaC1yc2EAAAABJQAAAQEAxQXVLKYOfEPNY6/psWxXWNIN23SFRkaHO2vlUQ3b3vv9k5OO5Di5qmzJ+hZoTifYw+4oyYs0vsPgccy8uz7eJTso2gyk4g7eKMEbmQdDbdPb1K8v1EdF11LfjnImepDDGRNgabhjfS4R/FAA0BTj8xAOjnRsBRD2FrYcVyoxvunKce1V5o3CtgqNlcLrSf+PJb++AW/K5BeLFpJMFCJXSC3QuL0ltYVUp/weA7L/yGOGCSJsv8JzaEekXgGHtuGvpibphYBKtk4sqc6AOWcWGT/6kx7Ntvpg+exdkqGQSDz1krcRyZyQpkQTSaq0Xcld1YZ4u8g5gAl/zDs+7ABRVw== rsa-key-20211111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.12.0.0 </t>
+  </si>
+  <si>
+    <t>18.13.0.0</t>
+  </si>
+  <si>
+    <t>18.14.0.0</t>
+  </si>
+  <si>
+    <t>19.10.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.0.0 </t>
+  </si>
+  <si>
+    <t>19.12.0.0</t>
+  </si>
+  <si>
+    <t>21.0.0.0</t>
+  </si>
+  <si>
+    <t>21.3.0.0</t>
+  </si>
+  <si>
+    <t>VMCluster</t>
+  </si>
+  <si>
+    <t>vmname</t>
+  </si>
+  <si>
+    <t>nonprod-vcn_nonprod-db</t>
+  </si>
+  <si>
+    <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to read work-requests in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage bastion-session in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage cloudevents-rules in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to read instance-agent-plugins in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to read work-requests in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage bastion-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage alarms in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage metrics in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to read instance-agent-plugins in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow Group SecurityAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group SecurityAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to read work-requests in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to manage cloudevents-rules in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to manage instance-family in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to read vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to inspect keys in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to read instance-agent-plugins in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow Group NetworkAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to read work-requests in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to manage bastion-session in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to manage cloudevents-rules in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to manage instance-family in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to read instance-agent-plugins in compartment Network</t>
+  </si>
+  <si>
+    <t>spoke:PHXHub-VCN</t>
+  </si>
+  <si>
+    <t>lpgtcc</t>
+  </si>
+  <si>
+    <t>lpgebs</t>
+  </si>
+  <si>
+    <t>phxhub</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>y,y</t>
+  </si>
+  <si>
+    <t>PHX-DRG</t>
+  </si>
+  <si>
+    <t>spoke:hub-vcn</t>
+  </si>
+  <si>
+    <t>lpgnonprod</t>
+  </si>
+  <si>
+    <t>lpgprod</t>
+  </si>
+  <si>
+    <t>hub-vcn-RD</t>
+  </si>
+  <si>
+    <t>hub-vcn-RT</t>
+  </si>
+  <si>
+    <t>VCN::hub-vcn</t>
+  </si>
+  <si>
+    <t>172.16.0.0/16,172.17.0.0/16</t>
+  </si>
+  <si>
+    <t>nonprod-vcn.com</t>
+  </si>
+  <si>
+    <t>prod-vcn.com</t>
+  </si>
+  <si>
+    <t>hub-vcn.com</t>
+  </si>
+  <si>
+    <t>prod-dmz-sl,prod-common-sl</t>
+  </si>
+  <si>
+    <t>prod-dmz-rt</t>
+  </si>
+  <si>
+    <t>prod-dmz</t>
+  </si>
+  <si>
+    <t>pub-infra-sl,hub-common-sl</t>
+  </si>
+  <si>
+    <t>pub-infra-rt</t>
+  </si>
+  <si>
+    <t>pub-infra</t>
+  </si>
+  <si>
+    <t>pvt-infra-sl,hub-common-sl</t>
+  </si>
+  <si>
+    <t>pvt-infra-rt</t>
+  </si>
+  <si>
+    <t>pvt-infra</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read data-safe-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read autonomous-database-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read vaults in tenancy</t>
+  </si>
+  <si>
+    <t>CIDR Blocks</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -6765,7 +7138,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">v8.0.2
+      <t xml:space="preserve">v9
 </t>
     </r>
     <r>
@@ -6776,382 +7149,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
 </t>
     </r>
-  </si>
-  <si>
-    <t>DB System Display Name</t>
-  </si>
-  <si>
-    <t>Node Count</t>
-  </si>
-  <si>
-    <t>CPU Core Count</t>
-  </si>
-  <si>
-    <t>Database Edition</t>
-  </si>
-  <si>
-    <t>Data Storage Size in GB</t>
-  </si>
-  <si>
-    <t>Data Storage Percentage</t>
-  </si>
-  <si>
-    <t>Disk Redundancy</t>
-  </si>
-  <si>
-    <t>License Model</t>
-  </si>
-  <si>
-    <t>DB Workload</t>
-  </si>
-  <si>
-    <t>Enable Automatic Backups</t>
-  </si>
-  <si>
-    <t>Back up Retention Period</t>
-  </si>
-  <si>
-    <t>VM.Standard1.1</t>
-  </si>
-  <si>
-    <t>VM.Standard1.2</t>
-  </si>
-  <si>
-    <t>VM.Standard1.4</t>
-  </si>
-  <si>
-    <t>VM.Standard1.8</t>
-  </si>
-  <si>
-    <t>VM.Standard1.16</t>
-  </si>
-  <si>
-    <t>Shapes</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>DB workload</t>
-  </si>
-  <si>
-    <t>Exadata Infra Display Name</t>
-  </si>
-  <si>
-    <t>Database Servers</t>
-  </si>
-  <si>
-    <t>Storage Servers</t>
-  </si>
-  <si>
-    <t>Exadata.X8M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                             Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-  </si>
-  <si>
-    <t>VM Cluster Display Name</t>
-  </si>
-  <si>
-    <t>Client Subnet Name</t>
-  </si>
-  <si>
-    <t>Oracle Grid Infrastructure Version</t>
-  </si>
-  <si>
-    <t>Allocate storage for Exadata sparse snapshots</t>
-  </si>
-  <si>
-    <t>Allocate storage for local backups</t>
-  </si>
-  <si>
-    <t>Allow Group AppDevAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group AppDevAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group Auditors to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group Auditors to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group NetworkAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>CostAdmins-Policy</t>
-  </si>
-  <si>
-    <t>Policy allowing CostAdmins group to manage costing.</t>
-  </si>
-  <si>
-    <t>Allow group CostAdmins to manage usage-report in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group CostAdmins to manage usage-budgets  in tenancy</t>
-  </si>
-  <si>
-    <t>CostAdmins</t>
-  </si>
-  <si>
-    <t>Group responsible for Cost Management</t>
-  </si>
-  <si>
-    <t>The namespace for the automatic tags.</t>
-  </si>
-  <si>
-    <t>prod-vcn_prod-db</t>
-  </si>
-  <si>
-    <t>MyVM_DB</t>
-  </si>
-  <si>
-    <t>vmdb</t>
-  </si>
-  <si>
-    <t>MyBM_DB</t>
-  </si>
-  <si>
-    <t>bmdb</t>
-  </si>
-  <si>
-    <t>ssh-rsa AAAAB3NzaC1yc2EAAAABJQAAAQEAxQXVLKYOfEPNY6/psWxXWNIN23SFRkaHO2vlUQ3b3vv9k5OO5Di5qmzJ+hZoTifYw+4oyYs0vsPgccy8uz7eJTso2gyk4g7eKMEbmQdDbdPb1K8v1EdF11LfjnImepDDGRNgabhjfS4R/FAA0BTj8xAOjnRsBRD2FrYcVyoxvunKce1V5o3CtgqNlcLrSf+PJb++AW/K5BeLFpJMFCJXSC3QuL0ltYVUp/weA7L/yGOGCSJsv8JzaEekXgGHtuGvpibphYBKtk4sqc6AOWcWGT/6kx7Ntvpg+exdkqGQSDz1krcRyZyQpkQTSaq0Xcld1YZ4u8g5gAl/zDs+7ABRVw== rsa-key-20211111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.12.0.0 </t>
-  </si>
-  <si>
-    <t>18.13.0.0</t>
-  </si>
-  <si>
-    <t>18.14.0.0</t>
-  </si>
-  <si>
-    <t>19.10.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.11.0.0 </t>
-  </si>
-  <si>
-    <t>19.12.0.0</t>
-  </si>
-  <si>
-    <t>21.0.0.0</t>
-  </si>
-  <si>
-    <t>21.3.0.0</t>
-  </si>
-  <si>
-    <t>VMCluster</t>
-  </si>
-  <si>
-    <t>vmname</t>
-  </si>
-  <si>
-    <t>nonprod-vcn_nonprod-db</t>
-  </si>
-  <si>
-    <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read work-requests in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage bastion-session in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage cloudevents-rules in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read instance-agent-plugins in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read work-requests in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage bastion-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage alarms in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage metrics in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read instance-agent-plugins in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow Group SecurityAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group SecurityAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read work-requests in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage cloudevents-rules in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage instance-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to inspect keys in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read instance-agent-plugins in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group NetworkAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to read work-requests in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage bastion-session in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage cloudevents-rules in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage instance-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to read instance-agent-plugins in compartment Network</t>
-  </si>
-  <si>
-    <t>spoke:PHXHub-VCN</t>
-  </si>
-  <si>
-    <t>lpgtcc</t>
-  </si>
-  <si>
-    <t>lpgebs</t>
-  </si>
-  <si>
-    <t>phxhub</t>
-  </si>
-  <si>
-    <t>hub</t>
-  </si>
-  <si>
-    <t>y,y</t>
-  </si>
-  <si>
-    <t>PHX-DRG</t>
-  </si>
-  <si>
-    <t>spoke:hub-vcn</t>
-  </si>
-  <si>
-    <t>lpgnonprod</t>
-  </si>
-  <si>
-    <t>lpgprod</t>
-  </si>
-  <si>
-    <t>hub-vcn-RD</t>
-  </si>
-  <si>
-    <t>hub-vcn-RT</t>
-  </si>
-  <si>
-    <t>VCN::hub-vcn</t>
-  </si>
-  <si>
-    <t>172.16.0.0/16,172.17.0.0/16</t>
-  </si>
-  <si>
-    <t>nonprod-vcn.com</t>
-  </si>
-  <si>
-    <t>prod-vcn.com</t>
-  </si>
-  <si>
-    <t>hub-vcn.com</t>
-  </si>
-  <si>
-    <t>prod-dmz-sl,prod-common-sl</t>
-  </si>
-  <si>
-    <t>prod-dmz-rt</t>
-  </si>
-  <si>
-    <t>prod-dmz</t>
-  </si>
-  <si>
-    <t>pub-infra-sl,hub-common-sl</t>
-  </si>
-  <si>
-    <t>pub-infra-rt</t>
-  </si>
-  <si>
-    <t>pub-infra</t>
-  </si>
-  <si>
-    <t>pvt-infra-sl,hub-common-sl</t>
-  </si>
-  <si>
-    <t>pvt-infra-rt</t>
-  </si>
-  <si>
-    <t>pvt-infra</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read data-safe-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read autonomous-database-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read vaults in tenancy</t>
-  </si>
-  <si>
-    <t>CIDR Blocks</t>
   </si>
 </sst>
 </file>
@@ -11183,36 +11183,36 @@
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
     </sheetDataSet>
   </externalBook>
@@ -11585,7 +11585,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11596,7 +11596,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="70" t="s">
-        <v>945</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -11686,7 +11686,7 @@
         <v>823</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>817</v>
@@ -11716,7 +11716,7 @@
         <v>823</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>820</v>
@@ -18307,31 +18307,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="68" t="s">
+        <v>946</v>
+      </c>
+      <c r="H2" s="68" t="s">
         <v>947</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="I2" s="68" t="s">
         <v>948</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="J2" s="68" t="s">
         <v>949</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="K2" s="94" t="s">
         <v>950</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="L2" s="68" t="s">
         <v>951</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="M2" s="69" t="s">
         <v>952</v>
-      </c>
-      <c r="M2" s="69" t="s">
-        <v>953</v>
       </c>
       <c r="N2" s="68" t="s">
         <v>425</v>
@@ -18349,10 +18349,10 @@
         <v>428</v>
       </c>
       <c r="S2" s="68" t="s">
+        <v>953</v>
+      </c>
+      <c r="T2" s="68" t="s">
         <v>954</v>
-      </c>
-      <c r="T2" s="68" t="s">
-        <v>955</v>
       </c>
       <c r="U2" s="68" t="s">
         <v>96</v>
@@ -18364,7 +18364,7 @@
         <v>332</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Y2" s="68" t="s">
         <v>597</v>
@@ -18414,10 +18414,10 @@
         <v>57</v>
       </c>
       <c r="D4" s="37" t="s">
+        <v>989</v>
+      </c>
+      <c r="E4" s="106" t="s">
         <v>990</v>
-      </c>
-      <c r="E4" s="106" t="s">
-        <v>991</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>349</v>
@@ -18440,7 +18440,7 @@
         <v>338</v>
       </c>
       <c r="N4" s="55" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O4" s="55" t="s">
         <v>339</v>
@@ -18488,10 +18488,10 @@
         <v>91</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F5" s="55" t="s">
         <v>352</v>
@@ -18516,7 +18516,7 @@
         <v>338</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O5" s="55" t="s">
         <v>354</v>
@@ -18537,7 +18537,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="55" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="V5" s="39" t="s">
         <v>344</v>
@@ -24699,7 +24699,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -24717,7 +24717,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D2" s="94" t="s">
         <v>85</v>
@@ -24726,10 +24726,10 @@
         <v>86</v>
       </c>
       <c r="F2" s="94" t="s">
+        <v>966</v>
+      </c>
+      <c r="G2" s="94" t="s">
         <v>967</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>968</v>
       </c>
       <c r="H2" s="97" t="s">
         <v>444</v>
@@ -24761,7 +24761,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F4" s="37">
         <v>2</v>
@@ -30846,34 +30846,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D2" s="69" t="s">
+        <v>970</v>
+      </c>
+      <c r="E2" s="94" t="s">
         <v>971</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>972</v>
       </c>
       <c r="F2" s="94" t="s">
         <v>356</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I2" s="94" t="s">
         <v>425</v>
       </c>
       <c r="J2" s="94" t="s">
+        <v>972</v>
+      </c>
+      <c r="K2" s="94" t="s">
         <v>973</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="L2" s="94" t="s">
         <v>974</v>
-      </c>
-      <c r="L2" s="94" t="s">
-        <v>975</v>
       </c>
       <c r="M2" s="94" t="s">
         <v>96</v>
@@ -30923,13 +30923,13 @@
         <v>432</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G4" s="109">
         <v>4</v>
@@ -30938,7 +30938,7 @@
         <v>338</v>
       </c>
       <c r="I4" s="103" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J4" s="103" t="s">
         <v>437</v>
@@ -37805,22 +37805,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="51" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C1" s="60" t="s">
         <v>433</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E1" s="51" t="s">
         <v>358</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G1" s="61" t="s">
         <v>332</v>
@@ -37829,13 +37829,13 @@
         <v>331</v>
       </c>
       <c r="I1" s="96" t="s">
+        <v>950</v>
+      </c>
+      <c r="J1" s="96" t="s">
         <v>951</v>
       </c>
-      <c r="J1" s="96" t="s">
-        <v>952</v>
-      </c>
       <c r="K1" s="61" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -37867,7 +37867,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K2" s="39">
         <v>1</v>
@@ -37875,7 +37875,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="95" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>435</v>
@@ -37902,7 +37902,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="67" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K3" s="39">
         <v>2</v>
@@ -37910,7 +37910,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="95" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>353</v>
@@ -37932,7 +37932,7 @@
         <v>349</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>436</v>
@@ -37952,7 +37952,7 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
@@ -37965,11 +37965,11 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="95" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
@@ -37982,11 +37982,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="95" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
@@ -38020,7 +38020,7 @@
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
@@ -38033,11 +38033,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="95" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
@@ -38054,11 +38054,11 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F12" s="39"/>
       <c r="H12" s="39" t="s">
@@ -38071,7 +38071,7 @@
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -38086,7 +38086,7 @@
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
@@ -41980,10 +41980,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>986</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>987</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>988</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -43291,7 +43291,7 @@
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
       <c r="E36" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -43303,7 +43303,7 @@
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
       <c r="E37" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -43315,7 +43315,7 @@
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -43327,7 +43327,7 @@
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -43339,7 +43339,7 @@
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
       <c r="E40" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -43375,7 +43375,7 @@
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
       <c r="E43" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -43399,7 +43399,7 @@
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -43411,7 +43411,7 @@
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -43599,7 +43599,7 @@
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
       <c r="E61" s="37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -43611,7 +43611,7 @@
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -43891,7 +43891,7 @@
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -43903,7 +43903,7 @@
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -43915,7 +43915,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
       <c r="E86" s="37" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -44151,7 +44151,7 @@
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
       <c r="E105" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -44163,7 +44163,7 @@
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
       <c r="E106" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -44175,7 +44175,7 @@
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
       <c r="E107" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -44187,7 +44187,7 @@
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
       <c r="E108" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -44199,7 +44199,7 @@
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
       <c r="E109" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -44211,7 +44211,7 @@
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
       <c r="E110" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -44223,7 +44223,7 @@
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
       <c r="E111" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -44235,7 +44235,7 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -44247,7 +44247,7 @@
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
       <c r="E113" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -44271,7 +44271,7 @@
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
       <c r="E115" s="37" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -44283,7 +44283,7 @@
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
       <c r="E116" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -44659,7 +44659,7 @@
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
       <c r="E146" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -44671,7 +44671,7 @@
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
       <c r="E147" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -44683,7 +44683,7 @@
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
       <c r="E148" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -44695,7 +44695,7 @@
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
       <c r="E149" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -44707,7 +44707,7 @@
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
       <c r="E150" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -44719,7 +44719,7 @@
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
       <c r="E151" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -44731,7 +44731,7 @@
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
       <c r="E152" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -44755,7 +44755,7 @@
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
       <c r="E154" s="37" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -44767,7 +44767,7 @@
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
       <c r="E155" s="37" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -44798,16 +44798,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C157" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D157" s="37" t="s">
+        <v>983</v>
+      </c>
+      <c r="E157" s="37" t="s">
         <v>984</v>
-      </c>
-      <c r="E157" s="37" t="s">
-        <v>985</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -44819,7 +44819,7 @@
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
       <c r="E158" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -45163,7 +45163,7 @@
       <c r="C186" s="37"/>
       <c r="D186" s="37"/>
       <c r="E186" s="37" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F186" s="37"/>
       <c r="G186" s="37"/>
@@ -45175,7 +45175,7 @@
       <c r="C187" s="37"/>
       <c r="D187" s="37"/>
       <c r="E187" s="37" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F187" s="37"/>
       <c r="G187" s="37"/>
@@ -45187,7 +45187,7 @@
       <c r="C188" s="37"/>
       <c r="D188" s="37"/>
       <c r="E188" s="37" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="37"/>
@@ -45199,7 +45199,7 @@
       <c r="C189" s="37"/>
       <c r="D189" s="37"/>
       <c r="E189" s="37" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F189" s="37"/>
       <c r="G189" s="37"/>
@@ -45211,7 +45211,7 @@
       <c r="C190" s="37"/>
       <c r="D190" s="37"/>
       <c r="E190" s="37" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
@@ -45223,7 +45223,7 @@
       <c r="C191" s="37"/>
       <c r="D191" s="37"/>
       <c r="E191" s="37" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
@@ -45295,7 +45295,7 @@
       <c r="C197" s="75"/>
       <c r="D197" s="75"/>
       <c r="E197" s="75" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F197" s="75"/>
       <c r="G197" s="75"/>
@@ -45303,7 +45303,7 @@
     </row>
     <row r="198" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="E198" s="37" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -45499,7 +45499,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -45552,10 +45552,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="37"/>
@@ -45586,10 +45586,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K4" s="39"/>
       <c r="L4" s="33"/>
@@ -45620,10 +45620,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="33"/>
@@ -45658,7 +45658,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>23</v>
@@ -45670,13 +45670,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K7" s="73" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>464</v>
@@ -45708,10 +45708,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
@@ -45742,10 +45742,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="73"/>
@@ -45828,13 +45828,13 @@
         <v>749</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>873</v>
@@ -46130,7 +46130,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -46240,7 +46240,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="37"/>
@@ -46262,7 +46262,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -46284,7 +46284,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -46501,7 +46501,7 @@
         <v>748</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>51</v>
@@ -46516,10 +46516,10 @@
         <v>36</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>23</v>
@@ -46553,7 +46553,7 @@
         <v>748</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>752</v>
@@ -46568,10 +46568,10 @@
         <v>36</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>23</v>
@@ -46605,7 +46605,7 @@
         <v>750</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>391</v>
@@ -46620,10 +46620,10 @@
         <v>36</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K5" s="39" t="s">
         <v>23</v>
